--- a/victimas/resultados/libro_codigos.xlsx
+++ b/victimas/resultados/libro_codigos.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
   <si>
     <t xml:space="preserve">pos</t>
   </si>
@@ -140,16 +140,25 @@
     <t xml:space="preserve">Región donde ocurrió el secuestro o asesinato</t>
   </si>
   <si>
+    <t xml:space="preserve">-, Extranjero, I Tarapacá, II Antofagasta, III Atacama, IV Coquimbo, IX Araucanía, RM Metropolitana, RM METROPOLITANA, V Valparaíso, VI O`Higgins, VII Maule, VIII Biobío, X Los Lagos, XI Aysén, XII Magallanes, XIV Arica-Parinacota, XV Los Lagos</t>
+  </si>
+  <si>
     <t xml:space="preserve">ciudad</t>
   </si>
   <si>
     <t xml:space="preserve">Ciudad donde ocurrió el secuestro o asesinato</t>
   </si>
   <si>
+    <t xml:space="preserve">-, ACHAO, ANDACOLLO, ANGOL, ANTOFAGASTA, ANTUCO, ARAUCO, ARGENTINA, ARICA, AYSEN, Buenos Aires, BUENOS AIRES, BULGARIA, CABILDO, CACHAPOAL, CALAMA, CARAHUE, CARTAGENA, CASTRO, CAUQUENES, CHACABUCO, CHANCO, CHAÑARAL, CHILLAN, CHILLÁN, CHILOE, COBQUECURA, COELEMU, COIHUECO, COMBARBALA, COMODORO RIVADAVIA, CONCEPCION, CONCEPCIÓN, CONSTITUCION, CONTULMO, COPIAPO, COQUIMBO, CORONEL, COYA, COYHAIQUE, CUNCO, CURACAUTIN, CURACAVI, CURANILAHUE, CURARREHUE, CURICO, EL LOA, ENTRE LAGOS, ESTADOS UNIDOS, FREIRE, GALVARINO, GORBEA, HUASCO, HUEPIL, ILLAPEL, IQUIQUE, ISLA DE MAIPO, LA CALERA, LA LIGUA, La Paz, Bolivia, LA PLATA, LA SERENA, LA UNION, LAJA, LAUTARO, LEQUENA, LINARES, LIQUIÑE, LLANQUIHUE, LLAY LLAY, LONQUIMAY, LOS ANDES, LOS ANGELES, LOS VILOS, LOTA, MAGALLANES, MAIPO, MALLECO, MARCHIGÜE, MAULLIN, MELIPEUCO, MELIPILLA, MENDOZA, MEXICO, MOLINA, MULCHEN, NACIMIENTO, NELTUME, NEUQUEN, NINHUE, ÑUBLE, OSORNO, OVALLE, PAINE, PALENA, PANGUIPULLI, PARAGUAY, PARRAL, PENCAHUE, PEÑAFLOR, PERQUENCO, PICHIDEGUA, PISAGUA, PITRUFQUEN, POLCURA, PORVENIR, PUCÓN, PUERTO AYSEN, PUERTO MONTT, PUERTO NATALES, PUERTO OCTAY, PUERTO SAAVEDRA, PUNTA ARENAS, PUTRE, QUEBEC, QUELLON, QUENAC, QUILACO, QUILLECO, QUILLOTA, QUILPUE, QUINTERO, QUITRATUE, RANCAGUA, RENGO, RIO BUENO, RIO NEGRO, SAGRADA FAMILIA, SAN ANTONIO, SAN BERNARDO, SAN CARLOS, SAN FCO. DE MOSTAZAL, SAN FELIPE, SAN FERNANDO, SAN JAVIER, SAN NICOLAS, SAN PABLO, SAN PEDRO DE LA PAZ, SAN SEBASTIAN, SANTA BARBARA, SANTA BÁRBARA, SANTA CRUZ, Santiago, SANTIAGO, TALAGANTE, TALCA, TALCAHUANO, TEMUCO, TIERRA DEL FUEGO, TOCOPILLA, TOME, TRASLADADO A TEMUCO, TRASLADADO COYHAIQUE, TRASLADADO SANTIAGO, TRASLADO SAN ANTONIO, VALDIVIA, VALLENAR, VALPARAISO, VICTORIA, VICUÑA, VILLA ALEGRE, VILLARRICA, VIÑA DEL MAR, WASHINGTON, YUMBEL</t>
+  </si>
+  <si>
     <t xml:space="preserve">comuna</t>
   </si>
   <si>
     <t xml:space="preserve">Comuna donde ocurrió el secuestro o asesinato</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-, ANDACOLLO, ANGOL, ANTOFAGASTA, ANTUCO, ARAUCO, ARICA, BUIN, BULNES, CABILDO, CALAMA, CARAHUE, CARTAGENA, CASTRO, CAUQUENES, CAUTIN, CERRILLOS, CERRO NAVIA, CHANCO, CHIGUAYANTE, CHILLAN, CISNES, COBQUECURA, COELEMU, COIHUECO, COLINA, COMBARBALA, CONCEPCION, CONCEPCIÓN, CONCHALI, CONSTITUCION, CONTULMO, COPIAPO, COQUIMBO, CORONEL, CORRAL, COYHAIQUE, CUNCO, CURACAUTIN, CURACAVI, CURANILAHUE, CURARREHUE, CURICO, DIEGO DE ALMAGRO, EL BOSQUE, EL MONTE, ENTRE LAGOS, ESTACION CENTRAL, ESTACIÓN CENTRAL, FREIRE, FUTALEUFU, FUTRONO, GALVARINO, GORBEA, HUARA, ILLAPEL, INDEPENDENCIA, IQUIQUE, ISLA DE MAIPO, LA CALERA, LA CISTERNA, LA FLORIDA, LA GRANJA, LA LIGUA, LA PINTANA, LA REINA, LA SERENA, LA UNION, LAGO RANCO, LAJA, LAMPA, LANCO, LAS CONDES, LAUTARO, LIMACHE, LINARES, LLAY LLAY, LO ESPEJO, LO PRADO, LONQUIMAY, LOS ANDES, LOS ANGELES, LOS VILOS, LOTA, MACUL, MAIPU, MARCHIGÜE, MARIA ELENA, MAULLIN, MELIPEUCO, MELIPILLA, MOLINA, MULCHEN, NACIMIENTO, NINHUE, NUEVA IMPERIAL, ÑUÑOA, OLLAGšE, OSORNO, OVALLE, PADRE HURTADO, PAINE, PALENA, PANGUIPULLI, PARRAL, PELARCO, PEMUCO, PENCO, PEÑAFLOR, PEÑALOLEN, PERQUENCO, PICHIDEGUA, PINTO, PIRQUE, PISAGUA, PITRUFQUEN, POLCURA, PORVENIR, PROVIDENCIA, PUCHUNCAVI, PUCÓN, PUDAHUEL, PUDAHUEL (BARRANCAS), PUENTE ALTO, PUERTO AYSEN, PUERTO MONTT, PUERTO NATALES, PUERTO OCTAY, PUERTO SAAVEDRA, PUNTA ARENAS, PUTAENDO, PUTRE, PUYEHUE, QUELLON, QUILACO, QUILICURA, QUILLECO, QUILLOTA, QUILPUE, QUINCHAO, QUINTA NORMAL, QUINTERO, QUIRIHUE, RAHUE, RANCAGUA, RECOLETA, RENAICO, RENCA, RENGO, RETIRO, RIO BUENO, RIO NEGRO, ROMERAL, S.J.DE LA MARIQUINA, SAGRADA FAMILIA, SAN ANTONIO, SAN BERNARDO, SAN CARLOS, SAN CLEMENTE, SAN FCO. DE MOSTAZAL, SAN FELIPE, SAN FERNANDO, SAN JAVIER, SAN JOAQUIN, SAN JOAQUÍN, SAN JOSE DE MAIPO, SAN JUAN DE LA COSTA, SAN MIGUEL, SAN NICOLAS, SAN PABLO, SAN PEDRO DE LA PAZ, SAN RAMON, SAN ROSENDO, SAN VICENTE T.T., SANTA BARBARA, SANTA BÁRBARA, SANTA CRUZ, SANTAGO, SANTIAGO, SANTO DOMINGO, TALAGANTE, TALCA, TALCAHUANO, TEMUCO, TIERRA AMARILLA, TOCOPILLA, TOLTEN, TOME, VALAPARAISO, VALDIVIA, VALLENAR, VALPARAISO, VICTORIA, VICUÑA, VILLA ALEGRE, VILLARRICA, VIÑA DEL MAR, VITACURA, YUMBEL, ZONA FRONTERIZA DE PAIMUN</t>
   </si>
   <si>
     <t xml:space="preserve">comision</t>
@@ -800,13 +809,13 @@
         <v>41</v>
       </c>
       <c r="D14" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15">
@@ -814,19 +823,19 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D15" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16">
@@ -834,19 +843,19 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C16" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D16" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="E16" t="n">
         <v>1</v>
       </c>
       <c r="F16" t="s">
-        <v>9</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17">
@@ -854,10 +863,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C17" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D17" t="s">
         <v>22</v>
@@ -866,7 +875,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18">
@@ -874,10 +883,10 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C18" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D18" t="s">
         <v>22</v>
@@ -886,7 +895,7 @@
         <v>0</v>
       </c>
       <c r="F18" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="19">
@@ -894,10 +903,10 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C19" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D19" t="s">
         <v>22</v>
@@ -906,7 +915,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="20">
@@ -914,10 +923,10 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C20" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D20" t="s">
         <v>22</v>
@@ -926,7 +935,7 @@
         <v>1747</v>
       </c>
       <c r="F20" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21">
@@ -934,10 +943,10 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C21" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D21" t="s">
         <v>12</v>
@@ -954,10 +963,10 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C22" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D22" t="s">
         <v>12</v>

--- a/victimas/resultados/libro_codigos.xlsx
+++ b/victimas/resultados/libro_codigos.xlsx
@@ -140,7 +140,7 @@
     <t xml:space="preserve">Región donde ocurrió el secuestro o asesinato</t>
   </si>
   <si>
-    <t xml:space="preserve">-, Extranjero, I Tarapacá, II Antofagasta, III Atacama, IV Coquimbo, IX Araucanía, RM Metropolitana, RM METROPOLITANA, V Valparaíso, VI O`Higgins, VII Maule, VIII Biobío, X Los Lagos, XI Aysén, XII Magallanes, XIV Arica-Parinacota, XV Los Lagos</t>
+    <t xml:space="preserve">Extranjero, Arica y Parinacota, Tarapacá, Antofagasta, Atacama, Coquimbo, Valparaíso, Metropolitana, O`Higgins, Maule, Ñuble, Biobío, Araucanía, Los Ríos, Los Lagos, Aysén, Magallanes</t>
   </si>
   <si>
     <t xml:space="preserve">ciudad</t>

--- a/victimas/resultados/libro_codigos.xlsx
+++ b/victimas/resultados/libro_codigos.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="82">
   <si>
     <t xml:space="preserve">pos</t>
   </si>
@@ -32,7 +32,10 @@
     <t xml:space="preserve">levels</t>
   </si>
   <si>
-    <t xml:space="preserve">id</t>
+    <t xml:space="preserve">value_labels</t>
+  </si>
+  <si>
+    <t xml:space="preserve">id_victima</t>
   </si>
   <si>
     <t xml:space="preserve">Código único de víctima</t>
@@ -44,25 +47,61 @@
     <t xml:space="preserve"/>
   </si>
   <si>
+    <t xml:space="preserve">id_caso_comision</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Código único de caso en comisión de la verdad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">int</t>
+  </si>
+  <si>
+    <t xml:space="preserve">id_caso_judicial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Código único de caso judicial</t>
+  </si>
+  <si>
     <t xml:space="preserve">victima</t>
   </si>
   <si>
-    <t xml:space="preserve">Nombre completo</t>
+    <t xml:space="preserve">Nombre completo de la víctima</t>
   </si>
   <si>
     <t xml:space="preserve">chr</t>
   </si>
   <si>
+    <t xml:space="preserve">sexo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sexo de la víctima</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fct</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Femenino, Masculino, Sin Informacion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nacionalidad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nacionalidad de la víctima</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Argentina, Austriaca, Boliviana, Brasileña, Checoslovaca, Chilena, Chileno, Chileno-Boliviana, Chileno-Britanica, Chileno-Española, Chileno-Suiza, Dominicana, Ecuatoriana, Española, Francesa, Franco-Chilena, Hungara, Italiana, Italo-Chilena, Mexicana, Norteamericana, Palestina, Peruana, Uruguaya, Venezolana, Vietnamita</t>
+  </si>
+  <si>
     <t xml:space="preserve">rut</t>
   </si>
   <si>
-    <t xml:space="preserve">RUN</t>
+    <t xml:space="preserve">RUN de la víctima</t>
   </si>
   <si>
     <t xml:space="preserve">fecha_nacimiento</t>
   </si>
   <si>
-    <t xml:space="preserve">Fecha de nacimiento</t>
+    <t xml:space="preserve">Fecha de nacimiento de la víctima</t>
   </si>
   <si>
     <t xml:space="preserve">date</t>
@@ -71,49 +110,28 @@
     <t xml:space="preserve">edad</t>
   </si>
   <si>
-    <t xml:space="preserve">Años de edad al momento del secuestro o asesinato</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sexo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sexo registral</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fct</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FEMENINO, MASCULINO, SIN INFORMACION</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nacionalidad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nacionalidad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ARGENTINA, AUSTRIACA, BOLIVIANA, BRASILEÑA, CHECOSLOVACA, CHILENA, Chileno, CHILENO-BOLIVIANA, CHILENO-BRITANICA, CHILENO-ESPAÑOLA, CHILENO-SUIZA, DOMINICANA, ECUATORIANA, ESPAÑOLA, FRANCESA, FRANCO-CHILENA, HUNGARA, ITALIANA, ITALO-CHILENA, MEXICANA, NORTEAMERICANA, PALESTINA, PERUANA, URUGUAYA, VENEZOLANA, VIETNAMITA</t>
+    <t xml:space="preserve">Edad de la víctima al momento del secuestro o asesinato</t>
   </si>
   <si>
     <t xml:space="preserve">actividad</t>
   </si>
   <si>
-    <t xml:space="preserve">Actividad principal</t>
+    <t xml:space="preserve">Actividad principal de la víctima (detalle)</t>
   </si>
   <si>
     <t xml:space="preserve">tipo_actividad</t>
   </si>
   <si>
-    <t xml:space="preserve">Tipo de actividad principal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AGRICULTOR, CAMPESINO, CESANTE, COMERCIANTE, DUEÑA DE CASA, EMPLEADO, EMPLEADO PRIVADO, EMPLEADO PUBLICO, EMPRESARIO, ESTUDIANTE, FF.AA. Y POLICIAS, FUNCIONARIO PARTIDO, GAP, GENDARMERIA, INVESTIGACIONES, JUBILADO, PENSIONADO, Ninguna, NO CORRESPONDE, OBRERO, OBRERO (PUBLICO), OTROS OFICIOS, PROFESIONAL, PROFESIONAL (PUBLICO), RELIGIOSO, REO PRESO, SE IGNORA, SIN ACTIVIDAD, TECNICO, TECNICO (PUBLICO)</t>
+    <t xml:space="preserve">Tipo de actividad principal de la víctima</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agricultor, Campesino, Cesante, Comerciante, Dueña De Casa, Empleado, Empleado Privado, Empleado Publico, Empresario, Estudiante, Ff.aa. Y Policias, Funcionario Partido, Gap, Gendarmeria, Investigaciones, Jubilado, Pensionado, Ninguna, No Corresponde, Obrero, Obrero (Publico), Otros Oficios, Profesional, Profesional (Publico), Religioso, Reo Preso, Se Ignora, Sin Actividad, Tecnico, Tecnico (Publico)</t>
   </si>
   <si>
     <t xml:space="preserve">militancia</t>
   </si>
   <si>
-    <t xml:space="preserve">Partido o movimiento político</t>
+    <t xml:space="preserve">Partido o movimiento político al que pertenecía o adhería la víctima</t>
   </si>
   <si>
     <t xml:space="preserve">API, BANDERA ROJA, DC, E.L.N., FPMR, IC, JRR, LIGA COMUNISTA, MAPU, MAPU-OC, MIR, MIR - FER, MIR - FTR, MIR - MCR, MIR BOLIVIANO, MOVIMIENTO TUPAMARO, NO, PAIS, PATRIA Y LIBERTAD, PC, PC - FPMR, PC BRASIL, PC ESPAÑOL, PCR, PIR, PN, PPD, PR, PS, PSD, PST, SIMPATIZ. TUPAMARO, SIMPATIZANTE IC, SIMPATIZANTE MAPU, SIMPATIZANTE MAPU-OC, SIMPATIZANTE MIR, SIMPATIZANTE P.Y L., SIMPATIZANTE PC, SIMPATIZANTE PS, UDI, VINCULADO IC, VINCULADO MIR, VINCULADO PC</t>
@@ -122,16 +140,22 @@
     <t xml:space="preserve">cargo</t>
   </si>
   <si>
-    <t xml:space="preserve">Cargo público y/o político</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AGENTE DINA, ALCALDE DE LOTA, ALCALDE TOCOPILLA, DIRIGENTE PC, ALFABETIZACION EN COMPLEJO MADERERO 'PANGUIPULLI', ASESOR DE INTERVENTOR AEROLITE, ASESOR INTENDENCIA DE SANTIAGO, ASESOR INTENDENTE DE SANTIAGO, ASESOR PRESIDENCIA DE LA REPUBLICA, ASESOR PRESIDENCIA DE LA REPUBLICA, EX-GERENTE BANCO CENTRAL, ASESOR PRESIDENCIA DE LA REPUBLICA, JEFE OPERACIONES PS, ASESOR PRESIDENCIA DE LA REPUBLICA, MIEMBRO C.CENTRAL PC, ASESOR PRESIDENCIA, DIRECTOR DE PRENSA CANAL NACIONAL, ASESOR PRESIDENCIA, EX-DIRECTOR INVESTIGACIONES, ASESOR SECRETARIA GENERAL DE GOBIERNO, ASIGNADO A SIFA, EN COMISION SERVICIO DINA, AYUDANTE RADIO "EL SUR", CAJERO ASENTAMIENTO, CAMPEON NACIONAL DE CICLISMO, CHOFER COMITE CENTRAL PC, CHOFER DIPUTADO COMUNISTA, CHOFER OSCAR GARRETON, CHOFER SENADOR ORLANDO MILLAS, CHOFER Y SECRETARIO GERENTE COBRECHUQUI DAVID SILBERMAN, CNI, COLABORADOR SIM, COMITE REGIONAL MIR, DIRIGENTE CAMPESINO, JEFE LOCAL MIR, CONSEJERO COMUNAL PANGUIPULLI, CONSEJERO CUT TEMUCO, CONSEJERO SINDICATO COMPLEJO PANGUIPULLI, COORDINADOR ASENTAMIENTOS CAMPESINOS MALALHUE, COORDINADOR SINDICATO ELECMETAL, CORRESPONSAL "PURO CHILE" Y "VEA", DELEGADO BIENESTAR SINDICATO CMPC; INTEGRANTE COMANDO U.P., DELEGADO CUT, DIRIGENTE SINDICAL (GRAFICOS), DELEGADO CUT, PRESIDENTE CONSEJO PROVINCIAL CAMPESINO, DELEGADO DE GOBIERNO COMPLEJO MADERERO PANGUIPULLI, DELEGADO LABORAL PLANTA TERMOELECTRICA, DELEGADO PRISIONES CUT, DELEGADO SINDICAL HACIENDA CANTERAS, DELEGADO SINDICATO OPERARIOS BODEGAS DE VINO, DELEGADO SINDICATO STANDARD ELECTRIC, DESTINADO A DINA; EX-MILITANTE MAPU, DIRECTOR ESCUELA DE ALTA MONTAÑA LOS ANDES, DIRECTOR ESCUELA INTELIGENCIA, DIRECTOR ORQUESTA SINFONICA U.DE CHILE, DIRECTOR PROVINCIAL DE EDUCACION, DIRECTOR RADIO ATACAMA, DIRECTOR RADIO EL LOA, JEFE RR.PP. CHUQUICAMATA, DIRECTOR SEDE LOS ANGELES U.DE CONCEPCION, DIRECTOR SINDICAL ENAEX, DIRECTOR SINDICATO OBREROS CARGADORES, DIRECTOR SINDICATO OBREROS ENAEX, DIRECTOR ZONAL DE SALUD, DIRECTOR ZONAL DE SALUD; JEFE HOSPITAL REGIONAL TEMUCO, DIRECTOR ZONAL SAG CAUTIN, GERENTE GENERAL ENAVI (CORFO), DIRIGENTE ASENTAMIENTO, DIRIGENTE ASENTAMIENTO "CHISCAIHUE", DIRIGENTE ASENTAMIENTO "EL ROBLE", DIRIGENTE ASENTAMIENTO "NUEVO SENDERO", DIRIGENTE ASENTAMIENTO CAMPESINO "EL COPIHUE", DIRIGENTE ASENTAMIENTO RANQUIL, DIRIGENTE C.U.P. (COMITE PROVINCIAL UNIDAD POPULAR), DIRIGENTE CAMIONEROS OVALLE, DIRIGENTE LOCAL DC, DIRIGENTE CAMPAMENTO, DIRIGENTE CAMPAMENTO ARNOLDO RIOS, DIRIGENTE CAMPAMENTO SANTIAGO PINO, DIRIGENTE CAMPESINO, DIRIGENTE CENTRO ALUMNOS U.CONCEPCION, SEDE LOS ANGELES, DIRIGENTE CENTRO DE ALUMNOS U.T.E., DIRIGENTE CERA "L.CRUZ", MIEMBRO CONSEJO MAPUCHE, DIRIGENTE COLEGIO DE PERIODISTAS, DIRIGENTE COMITE ALLEGADOS, DIRIGENTE COMITE DE ADELANTO POBLACION, DIRIGENTE COMITE SIN CASA PEÑALOLEN, DIRIGENTE LOCAL PC, DIRIGENTE COMUNAL PC, DIRIGENTE COMUNAL PS, PRESIDENTE SINDICATO CAMPESINO, DIRIGENTE COMUNIDAD INDIGENA, DIRIGENTE COMUNIDAD INDIGENA "ANCALEF", DIRIGENTE CONFEDERACION CUERO Y CALZADO, DIRIGENTE CONSEJO OBRERO FERROVIARIO, DIRIGENTE CONSEJO OBRERO MAESTRANZA, DIRIGENTE COOPERATIVA AGRICOLA, DIRIGENTE CUT, DIRIGENTE CUT OSORNO, DIRIGENTE POBLADORES SIN CASA, DIRIGENTE CUT VALDIVIA, DIRIGENTE CUT, MIEMBRO COMITE CENTRAL PC, DIRIGENTE DEPARTAMENTO JUVENIL CUT, DIRIGENTE ESTUDIANTIL, DIRIGENTE ESTUDIANTIL U.DE CHILE, DIRIGENTE ESTUDIANTIL U.DE CHILE TEMUCO, DIRIGENTE ESTUDIANTIL U.DE CONCEPCION, DIRIGENTE ESTUDIANTIL U.DE CONCEPCION SEDE CHILLAN, DIRIGENTE ESTUDIANTIL U.T.E., DIRIGENTE ESTUDIANTIL, DIRIGENTE REGIONAL MIR, DIRIGENTE ESTUDIANTIL, EX-ESTUDIANTE U.CONCEPCION, DIRIGENTE ESTUDIANTIL, INTEGRANTE ORQUESTA CAMARA U.AUSTRAL, DIRIGENTE ESTUDIANTIL, MIEMBRO GRUPO LITERARIO "AQUELARRE", DIRIGENTE FEDERACION CAMPESINA, PROFESOR ESCUELA SINDICAL, DIRIGENTE FEDERACION SANTIAGO WATTS, DIRIGENTE FENATRADECO Y CUT, SECRETARIO SINDICATO C.GARCIA, DIRIGENTE FENATS, DIRIGENTE GREMIAL, DIRIGENTE GREMIAL. PRESIDENTE REGIONAL FENATS, DIRIGENTE INSTITUTO PEDAGOGICO, DIRIGENTE JAP, DIRIGENTE JAP SANTA BARBARA, DIRIGENTE JAP SECTOR ORIENTE, DIRIGENTE JAP, CACIQUE COMUNIDAD PEHUENCHE, DIRIGENTE JAP, EX-DIRIGENTE SINDICAL CONSTRUCCION, DIRIGENTE JS, DIRIGENTE JS CAUQUENES, DIRIGENTE JS CONCEPCION, DIRIGENTE JS, DIRIGENTE JAP, DIRIGENTE JUNTA DE VECINOS POBLACION "EL OLIVO", DIRIGENTE JUNTA DE VECINOS VILLA NACIONES UNIDAS, DIRIGENTE JUNTA VECINOS, DIRIGENTE JUNTA VECINOS, PRESIDENTE COMITE 'SIN CASA', DIRIGENTE JUVENIL CUT, DIRIGENTE LOCAL MAPU, DIRIGENTE LOCAL PS, DIRIGENTE MAGISTERIO (SUTE), DIRIGENTE MAGISTERIO (SUTE), COLAB. ASENTAMIENTO "EL TORO", DIRIGENTE MAGISTERIO (SUTE), DIRECTOR ESCUELA BASICA Nº13, DIRIGENTE MAGISTERIO, PDTA.CONSEJO LOCAL DE SALUD, DIRIGENTE MCR; SINDICATO CAMPESINO "ESPERANZA DEL OBRERO", DIRIGENTE MIR, DIRIGENTE MIR LINARES, DIRIGENTE MOPARE, DIRIGENTE NACIONAL DE LOS TRABAJADORES DEL PETROLEO, DIRIGENTE NACIONAL FEDERACION CONSTRUCCION, DIRIGENTE NACIONAL MAGISTERIO (SUTE), DIRIGENTE NACIONAL PR, DIRIGENTE NACIONAL SINDICAL, MIEMBRO COMITE CENTRAL JS, DIRIGENTE OBREROS MUNICIPALES, DIRIGENTE OBREROS MUNICIPALES, DIRIGENTE CUT, DIRIGENTE PC, DIRIGENTE PC, EX-DIRECTOR MINERAL LA EXOTICA, DIRIGENTE PEQUEÑOS AGRICULTORES, DIRIGENTE PEQUEÑOS AGRICULTORES, SECRETARIO ASENTAMIENTO, DIRIGENTE POBLACION "LA PORTADA", DIRIGENTE POBLACION NUEVA HABANA, MIEMBRO JAP, DIRIGENTE POBLACION PABLO DE ROKHA, DIRIGENTE POBLACIONAL, DIRIGENTE POBLACIONAL PUENTE ALTO, DIRIGENTE POBLACIONAL, CICLISTA, DIRIGENTE POBLACIONAL, DELEGADO CUT, DIRIGENTE POBLACIONAL, EX-CANDIDATO A REGIDOR, DIRIGENTE POBLACIONAL, JEFE FINANZAS REGIONAL PC ILLAPEL, DIRIGENTE POBLACIONAL, PRESIDENTE SINDICATO CAMPESINO, DIRIGENTE POBLADORES SIN CASA, DIRIGENTE POBLADORES SIN CASA, SECRETARIO CAMPAMENTO, DIRIGENTE REGIONAL CAMPESINO, DIRIGENTE REGIONAL JJCC, DIRIGENTE REGIONAL JS, DIRIGENTE REGIONAL MIR TEMUCO, DIRIGENTE REGIONAL MIR, EX-DIRECTOR COMITE EJECUTIVO UP, DIRIGENTE REGIONAL PC, DIRIGENTE REGIONAL PC, MIEMBRO COMITE CENTRAL, DIRIGENTE REGIONAL PS, DIRIGENTE SINDICAL, DIRIGENTE SINDICAL "CHILEAN AUTOS", DIRIGENTE SINDICAL CAMPESINO, DIRIGENTE SINDICAL CAMPESINO ATACAMA, DIRIGENTE SINDICAL CAMPESINO, TESORERO ASENTAMIENTO, DIRIGENTE SINDICAL CENTRAL EL TORO, DIRIGENTE JAP, DIRIGENTE SINDICAL CONSTRUCCION, DIRIGENTE REGIONAL PC, DIRIGENTE SINDICAL CONSTRUCCION, EX-DIRIGENTE JJCC OVALLE, DIRIGENTE SINDICAL DISPUTADA DE LAS CONDES, DIRIGENTE SINDICAL ELECMETAL, DIRIGENTE SINDICAL ESTIBADORES, DIRIGENTE SINDICAL HOSPITAL BARROS LUCO, DIRIGENTE SINDICAL INDUSTRIA SUMAR, DIRIGENTE SINDICAL SECTOR SALUD, DIRIGENTE SINDICAL SIGDO KOPPER, DIRIGENTE SINDICAL Y POBLACIONAL, DIRIGENTE SINDICAL Y VECINAL, DELEGADO CUT, PRESIDENTE JAP, DIRIGENTE SINDICAL, DIRIGENTE ZONAL JS, DIRIGENTE SINDICAL, EX-FUNCIONARIO UNIVERSIDAD DEL NORTE, DIRIGENTE SINDICAL, EX-REGIDOR ENTRE LAGOS, DIRIGENTE SINDICAL, PRESIDENTE JAP, DIRIGENTE SINDICATO ARTESANOS, DIRIGENTE SINDICATO ASENTAMIENTO "LA ESTRELLA", DIRIGENTE SINDICATO CAMIONEROS, DIRIGENTE MOPART, DIRIGENTE SINDICATO CAMPESINO, DIRIGENTE SINDICATO CAMPESINO ASENTAMIENTO 'EL TORO', DIRIGENTE SINDICATO CENTRAL 'EL TORO', DIRIGENTE SINDICATO CMPC, DIRIGENTE SINDICATO CONSTRUCCION, DIRIGENTE SINDICATO CONSTRUCCION BUIN, DIRIGENTE SINDICATO CONSTRUCCION LAJA, DIRIGENTE SINDICATO ENAEX, DIRIGENTE DEPORTIVO, DIRIGENTE SINDICATO FERRETERIA MONTERO, DIRIGENTE SINDICATO HOSPITAL CORONEL, DIRIGENTE SINDICATO HOSPITAL ROBERTO DEL RIO, DIRIGENTE SINDICATO HOSPITAL SAN JUAN DE DIOS, DIRIGENTE SINDICATO INGECIL, DIRIGENTE SINDICATO LEÑATEROS Y CRIANCEROS VALLENAR, DIRIGENTE SINDICATO OBREROS CENTRAL 'EL TORO', DIRIGENTE TOMA FUNDO TOLOSA, DIRIGENTE VECINAL, DIRIGENTE VECINAL, GRUPO DD.HH. CAPILLA POBLACION, DIRIGENTE ZONAL PS, Durante la UP jefe de Central de Divulgación Técnica del MinAgri, EN COMISION DE SERVICIO EMPRESA SOVIETICA K.P.D., EN COMISION DE SERVICIO SEAM-CORFO, ENCARGADO APARATO MILITAR MIR, ENCARGADO COMITE LOCAL PC, DIRIGENTE VECINAL, ENCARGADO CULTURA FENSIMET, MIEMBRO DEPARTAMENTO CULTURA CUT, ENCARGADO CULTURAL SUMAR, ENCARGADO FINANZAS PC, ENCARGADO FRENTE INTERNO PS, EX-GAP, ENCARGADO FRENTE SOCIAL COMITE LOCAL MIR, ENCARGADO IMPRENTAS MIR (CONDOR Y MINERVA), ENCARGADO JAP LA FAENA, ENCARGADO LOGISTICA MIR, ENCARGADO ORGANIZACION MIR, ENCARGADO ORGANIZACION PS, ENCARGADO PROPAGANDA BEC, ENCARGADO PROPAGANDA JJCC OSORNO, ENCARGADO PROPAGANDA PS VILLARRICA, ENCARGADO PROPAGANDA Y ORGANIZACION PS, ENCARGADO REGIONAL PROPAGANDA PC, ENCARGADO ZONAL PS, ENLACE COMITE REGIONAL MIR, EQUIPO SEGURIDAD COMITE CENTRAL PC, ESCOLTA A.PINOCHET, ESCOLTA MGL CAROL URZUA, ESCOLTA MINISTRO OBRAS PUBLICAS SERGIO FIGUEROA, ESTUDIANTE U.DE CONCEPCION, EX-AGENTE ZONAL SOCOAGRO, EX-ALCALDE CABILDO, EX-ALCALDE CAÑETE, EX-ALCALDE DE COELEMU, EX-CABO CARABINEROS, EX-CABO FACH, EX-CANDIDATO A REGIDOR, EX-CANDIDATO A REGIDOR DC, EX-CANDIDATO A REGIDOR, PENSIONADO ARMADA, EX-CANDIDATO PRESIDENTE FESES, MIEMBRO COMITE REGIONAL MIR, EX-CANDIDATO REGIDOR LAGO RANCO, EX-CANDIDATO REGIDOR, DIRIGENTE POBLADORES SIN CASA, EX-CANDIDATO REGIDOR; EX-SECRETARIO REGIONAL JJCC, EX-GAP, EX-CARABINERO, EX-CONSEJERO NACIONAL CUT, EX-PRESIDENTE SINDICATO MINERO, EX-COORDINADOR REGIONAL DE EDUCACION; COMISION POLITICA PC, EX-DETECTIVE, EX-DIPUTADO PUERTO MONTT, EX-DIRECTOR ENDESA, EX-SUPERINT.RELAC.INDUSTR. EL SALVADOR, EX-DIRECTOR ESCUELA ARQUITECTURA U.C., EX-DIRECTOR FF.CC., EX-DIRECTOR SERMENA, EX-DIRECTOR SINDICATO INDUSTRIAL CENTRAL EL TORO, EX-DIRIGENTE ASOCIACION FUNCIONARIOS U.T.E., EX-DIRIGENTE CAMPAMENTO LAURA ALLENDE, EX-DIRIGENTE CAMPAMENTO SANTIAGO PINO, EX-DIRIGENTE CONFEDERACION TRIUNFO CAMPESINO, EX-DIRIGENTE CONSEJO COMUNAL CAMPESINO, EX-OBRERO AGRICOLA, EX-DIRIGENTE CUT, EX-DIRIGENTE CUT VALDIVIA, EX-DIRIGENTE CUT, EX-CANDIDATO REGIDOR, EX-DIRIGENTE ESCUELA BELLAS ARTES, EX-DIRIGENTE ESTUDIANTIL, EX-DIRIGENTE ESTUDIANTIL EN URUGUAY, EX-DIRIGENTE ESTUDIANTIL U.CH., EX-DIRIGENTE ESTUDIANTIL U.DE CONCEPCION, EX-GAP, EX-DIRIGENTE ESTUDIANTIL UNIVERSIDAD DE CONCEPCION, EX-DIRIGENTE ESTUDIANTIL, SECRETARIO REGIONAL CODEPU, EX-DIRIGENTE GREMIAL SOC.CONSTRUCTORA ESTABLECIMIENTOS EDUC., EX-DIRIGENTE JAP LA BANDERA, EX-DIRIGENTE JAP, DIRIGENTE COMITE SIN CASA, EX-DIRIGENTE JUNTA DE VECINOS LA LEGUA, EX-DIRIGENTE JUNTA VECINOS LO HERMIDA, EX-DIRIGENTE JUVENIL CUT, EX-DIRIGENTE OBREROS CONSTRUCCION, EX-DIRIGENTE JUVENIL CUT, EX-DIRIGENTE SINDICAL TESORERIA, EX-DIRIGENTE JUVENIL CUT, MIEMBRO COMITE CENTRAL JJCC, EX-DIRIGENTE NACIONAL CUT, SUBSECRETARIO GENERAL PC, EX-DIRIGENTE NACIONAL GRAFICOS, EX-DIRIGENTE JAP, EX-DIRIGENTE NACIONAL JOC, EX-DIRIGENTE NACIONAL OBREROS MUNICIPALES, DIRIG.REGIONAL PC, EX-DIRIGENTE OBREROS MUNICIPALES, EX-DIRIGENTE ORGANIZACIONES DE TRABAJADORES ESTATALES, EX-DIRIGENTE POBLACIONAL, EX-DIRIGENTE POBLACIONAL CAMPAMENTO VIETNAM HEROICO, EX-DIRIGENTE POBLACIONAL Y ESTUDIANTIL, EX-DIRIGENTE PORTUARIO Y CUT, MIEMBRO COMISION POLITICA PS, EX-DIRIGENTE PS, EX-MIEMBRO COMITE CENTRAL JS, EX-DIRIGENTE SINDICAL, EX-DIRIGENTE SINDICAL CHILECTRA, EX-DIRIGENTE SINDICAL CONSTRUCCION, EX-DIRIGENTE SINDICAL ENAFRI Y MUNICIPALIDAD STGO., EX-DIRIGENTE SINDICAL FANALOZA, EX-DIRIGENTE SINDICAL IMPRENTA HORIZONTE, EX-DIRIGENTE SINDICAL POLPAICO, EX-DIRIGENTE SINDICAL SECTOR SALUD, EX-DIRIGENTE SINDICAL SOCOMETAL, EX-DIRIGENTE SINDICAL SUMAR, EX-DIRIGENTE SINDICAL, DIRIGENTE REGIONAL PC, EX-DIRIGENTE SINDICAL, EX-SECRETARIO LUIS CORVALAN, EX-DIRIGENTE SINDICAL, EX-SUBOFICIAL ARMADA, EX-DIRIGENTE SINDICAL, SECRETARIO ORGANIZACION PC, EX-DIRIGENTE SINDICATO CENTRAL 'EL TORO', EX-DIRIGENTE SINDICATO MINERAL EL TENIENTE, EX-DIRIGENTE SINDICATO RADIOCONTROLADORES, EX-DIRIGENTE SINDICATO S.J.DE DIOS, EX-ESTUDIANTE U.T.E., EX-DIRIGENTE VECINAL, EX-DIRIGENTE VECINAL, EX-CARABINERO, EX-DIRIGENTE VECINAL, EX-DIRIGENTE JAP, EX-DIRIGENTE VECINAL, EX-DIRIGENTE SINDICAL CORVI, EX-EMPLEADA INSTITUTO CHILENO-VIETNAMITA, EX-EMPLEADO CAJA EMPLEADOS PARTICULARES, EX-EMPLEADO DINAC, EX-EMPLEADO IMPRENTA HORIZONTE, EX-ENCARGADO RELACIONES LABORALES CORFO, EX-DIRIG.SINDICAL, EX-ESTUDIANTE DE SOCIOLOGIA UNIVERSIDAD DE CONCEPCION, EX-ESTUDIANTE SOCIOLOGIA UNIVERSIDAD DE CONCEPCION, EX-ESTUDIANTE U.DE CHILE, EX-ESTUDIANTE U.DE CONCEPCION, EX-ESTUDIANTE UNIVERSIDAD AUSTRAL, EX-ESTUDIANTE UNIVERSIDAD DE CHILE, EX-ESTUDIANTE UNIVERSIDAD DE CONCEPCION, EX-ESTUDIANTE UNIVERSIDAD DE CONCEPCION; EX-MILITANTE MIR, EX-FUNCIONARIA CORVI, EX-FUNCIONARIA INDAP, EX-FUNCIONARIO CORA, EX-FUNCIONARIO CORVI, EX-FUNCIONARIO ENAP, EX-SECRETARIO REGIONAL PC, EX-FUNCIONARIO I.N.E., EX-FUNCIONARIO INDAP, EX-FUNCIONARIO INDAP Y GUARDAESPALDAS J.CHONCHOL, EX-FUNCIONARIO INVESTIGACIONES, EX-FUNCIONARIO M.HACIENDA; EX-DIRIGENTE JAP; MIEMBRO PC o PS, EX-FUNCIONARIO QUIMANTU, EX-GAP, EX-INFANTE MARINA, EX-INSTRUCTOR ESCUELA PARACAIDISMO PELDEHUE, EX-INTENDENTE CAUTIN, EX-INTENDENTE, EX-FUNC.EDITORA HORIZONTE, COMITE CENTRAL PC, EX-INTERVENTOR ACEROS FRANKLIN, EX-COORDINADOR SINDICAL U.P., EX-INTERVENTOR COMANDARI, EX-INTERVENTOR MINA LA DISPUTADA, PRESIDENTE SINDICATO SHYF, EX-INTERVENTOR PANADERIA LIDO, EX-INTERVENTOR PREDIOS AGRICOLAS, EX-INTERVENTOR, EX-FUNCIONARIO CORFO, EX-MIEMBRO EJERCITO DADO DE BAJA, EX-MIEMBRO EJERCITO DADO DE BAJA (PELDEHUE), EX-MIEMBRO EJERCITO DADO DE BAJA, EX-GAP, EX-MIEMBRO EJERCITO, DADO DE BAJA, EX-MIEMBRO GAP, EX-MIEMBRO GAP (1971), EX-MIEMBRO GAP ?, EX-MIEMBRO GAP; VINCULADO MIR, EX-MIEMBRO JAP, EX-MILITANTE MIR, EX-MINERO SCHWAGER, EX-MINISTRO DEL INTERIOR Y DEFENSA, EX-MINISTRO U.P., EX-EMBAJADOR EE.UU., EX-OBRERO IMPRENTA HORIZONTE, EX-PARLAMENTARIO, DIRIGENTE CUT, MIEMBRO COMITE CENTRAL PC, EX-PARLAMENTARIO, MIEMBRO C.CENTRAL PC, EX-DIRIGENTE CUT, EX-PC, INFORMANTE, EX-PDTE.FEDERACION SINDICATOS TRABAJADORES AGRICOLAS, EX-PDTE.OBREROS MUNICIPALES RENCA, EX-CANDIDATO REGIDOR, EX-PRESIDENTE ASAMBLEA RADICAL, EX-PDTE.COMITE UP PAINE, EX-PRESIDENTE ASENTAMIENTO, EX-PRESIDENTE CAMPAMENTO E.LAFFERTE Y COMITE VIVIENDA, EX-PRESIDENTE CUT CHILLAN, EX-PRESIDENTE FEUCH VALPARAISO, EX-PRESIDENTE JAP ÑUÑOA, EX-PRESIDENTE JS PAINE, EX-PRESIDENTE NACIONAL ACU, EX-PRESIDENTE SINDICATO AGRICOLA, EX-PRESIDENTE SINDICATO ASTILLEROS MARCO CHILENA, EX-PRESIDENTE SINDICATO CAMPESINO, EX-PRESIDENTE SINDICATO COMANDARI, EX-PRESIDENTE SINDICATO COMERCIANTES AMBULANTES, EX-PRESIDENTE SINDICATO CORMU, EX-PRESIDENTE SINDICATO ENAFRI, EX-PRESIDENTE SINDICATO QUIMANTU, EX-PRESIDENTE SINDICATO TORNEROS SOQUIMICH, EX-PROFESOR INVESTIGADOR CEREN U.C., EX-REGIDOR, EX-REGIDOR BUIN, EX-REGIDOR CONCEPCION. MIEMBRO C.CENTRAL JJCC, EX-REGIDOR DE RENCA, EX-DIRIGENTE SINDICAL CONSTRUCCION, EX-REGIDOR ENTRE LAGOS, DIRIGENTE COOPERATIVA CAMPESINA, EX-REGIDOR SANTA CRUZ, EX-REGIDOR Y ALCALDE, MIEMBRO COMITE CENTRAL PC, EX-REGIDOR Y ALCALDE, SECR.REGIONAL PS, DIRIGENTE SINDICAL, EX-REGIDOR, DIRIGENTE CUT, DIRIGENTE PS, EX-REGIDOR, DIRIGENTE FENATS Y CUT, EX-REGIDOR, SECRETARIO REGIONAL PS, EX-SACERDOTE, MIEMBRO "CRISTIANOS POR EL SOCIALISMO", EX-SACERDOTE, MIEMBRO MOV.CRISTIANOS POR EL SOCIALISMO, EX-SECRET. FEDERACION PROFESIONALES Y TECNICOS DE LA SALUD, EX-SECRETARIA OFICINA PRENSA LA MONEDA, EX-SECRETARIA PARLAMENTARIO COMUNISTA, EX-SECRETARIA PUNTO FINAL, EX-SECRETARIO CAMARA DE DIPUTADOS, EX-DIRIGENTE SECCIONAL PC, EX-SECRETARIO DIPUTADO PS, EX-PRESIDENTE FEUTE, EX-GAP, EX-SECRETARIO INTENDENCIA ANTOFAGASTA, EX-SECRETARIO SINDICATO UNICO EDITORIAL G.MISTRAL, EX-SOLDADO ESCUELA CABALLERIA QUILLOTA, EX-SUBDELEGADO GOBIERNO LA CALERA, EX-SUBDELEGADO SANTA BARBARA, EX-TESORERO SINDICATO "IVESA", EX-TESORERO SINDICATO OBREROS HOGAR DE CRISTO, EX DETECTIVE, SECRETARIO REGIONAL JS, Funcionaria del Depto. de Salud. Pública y Medicina Social, FUNCIONARIO CNI, FUNCIONARIO CORFO, FUNCIONARIO DEPARTAMENTO EXTENSION U.T.E., FUNCIONARIO MINERAL 'EL SALVADOR', GERENTE COBRECHUQUI, GERENTE COBRESAL, ASESOR CUT, GOBERNADOR DE ELQUI, GOBERNADOR SUBROGANTE CONSTITUCION, DIRIGENTE IC, GPM 3, GUARDAESPALDA MIGUEL ENRIQUEZ, HIJO DE EX-REGIDOR PC, HOSPITAL RAWSON (AR), INFORMANTE DINA LINARES, INTENDENTE CONCEPCION, INTENDENTE PALACIO DE GOBIERNO, INTERVENTOR BUSES LIT, INTENDENTE REGION METROPOLITANA, INTERVENTOR CERVECERA PARMA, INTERVENTOR COOPERATIVA PESQUERA, INTERVENTOR FABRICA AEROLITE, DIRIGENTE JUVENIL PS, INTERVENTOR HACIENDA LAGO LAJA, EX-DIRIGENTE JOC, INTERVENTOR MINA LAS PALMAS, REGIDOR PETORCA, INTERVENTOR PLANTA MINERA, JEFA DE GPM 2 DE SANTIAGO Y ENCARGADA DE ORGANIZACIÓN MIR, Jefa del Departamento de Desarrollo de la Muni. de Lo Prado, JEFA DEPARTAMENTO BIENESTAR U.DEL NORTE, JEFE AREA INDAP, JEFE COMITE LOCAL MIR, JEFE DE AREA SAG, JEFE DE GANADERIA CONSEJO LAUTARO, JEFE DE PRENSA INTENDENCIA SANTIAGO, JEFE GPM (MIR), JEFE OPERATIVO FPMR, JEFE PROGRAMA MEDICINA RURAL CAUTIN, JEFE PROVINCIAL ODEPLAN, JEFE SERVICIO ASISTENCIA JUDICIAL COLEGIO ABOGADOS, JEFE UNIDAD REGIONAL CNI, JEFE ZONAL FPMR, MEDICO GENERAL DE ZONA, MIEMBRO "CRISTIANOS PARA LA LIBERACION", MIEMBRO C.CENTRAL PC, EX-DIRIGENTE NACIONAL CUT Y RANQUIL, MIEMBRO C.CENTRAL PC, EX-REGIDOR, EX-PDTE. COLEGIO ARQUITECT, MIEMBRO CODEJU CONCEPCION, MIEMBRO COMACHI (COMITE DE AYUDA A CHILE), MIEMBRO COMANDO CONJUNTO, MIEMBRO COMANDO JUVENIL U.P., MIEMBRO COMISION NACIONAL DE PROPAGANDA PC, MIEMBRO COMISION POLITICA C.CENTRAL PS, MIEMBRO COMISION POLITICA CC PS, EX-DIPUTADO, EX-PDTE.JS, MIEMBRO COMISION POLITICA JS, EX-MIEMBRO GAP, MIEMBRO COMISION POLITICA MIR, MIEMBRO COMISION POLITICA MIR, EX-SEMINARISTA, MIEMBRO COMISION POLITICA MIR, REDACTOR 'PUNTO FINAL', MIEMBRO COMISION POLITICA PC. DIRIGENTE CONFEDERACION MINERA, MIEMBRO COMISION POLITICA PS, MIEMBRO COMISION REGIONAL PS, EX-DIRIGENTE ESTUDIANTIL, MIEMBRO COMITE CENTRAL JJCC, MIEMBRO COMITE CENTRAL JJCC, DIRIGENTE SINDICAL CONSTRUCCION, MIEMBRO COMITE CENTRAL MIR, MIEMBRO COMITE CENTRAL MIR, EX-DIRIGENTE ESTUDIANTIL, MIEMBRO COMITE CENTRAL MIR, JEFE INFORMACIONES MILITARES MIR, MIEMBRO COMITE CENTRAL PC, MIEMBRO COMITE CENTRAL PC, CONSEJO NORMATIVO SUPERIOR U.CH., MIEMBRO COMITE CENTRAL PC, EX-CHOFER CAMARA DIPUTADOS, MIEMBRO COMITE CENTRAL PC, EX-DIRECTOR E.T.C.DEL E., MIEMBRO COMITE CENTRAL PC, EX-DIRECTOR NACIONAL CUT, MIEMBRO COMITE CENTRAL PC, EX-DIRIGENTE CUT, MIEMBRO COMITE CENTRAL PC, EX-DIRIGENTE SINDICAL, MIEMBRO COMITE CENTRAL PS, MIEMBRO COMITE CENTRAL PS, EX-DIRIGENTE ESTUDIANTIL, MIEMBRO COMITE CENTRAL Y COMISION POLITICA PS, MIEMBRO COMITE LOCAL PC PEÑALOLEN, MIEMBRO COMITE REGIONAL MIR, MIEMBRO COMITE REGIONAL PS, MIEMBRO CONSEJO PASTORAL CAPILLA JUAN XXIII, MIEMBRO CRISTIANOS POR EL SOCIALISMO, MIEMBRO DINA, MIEMBRO DINE, MIEMBRO DIRECCION PS TOCOPILLA, JEFE MATERNIDAD HOSPITAL, MIEMBRO DIRECCION REGIONAL PC, MIEMBRO DIRECTIVA SINDICATO CONSTRUCCION, MIEMBRO EQUIPO PROTECCION MINISTRO ECONOMIA, MIEMBRO EQUIPO SEGURIDAD COMITE CENTRAL PS, MIEMBRO FENSIMET, PDTE. DEPTO.CULTURA INTERFEDERACIONES, MIEMBRO FPMR, MIEMBRO FTR, MIEMBRO GAP, MIEMBRO JAP, MIEMBRO JAP, AYUDANTE PASTOR EVANGELICO, MIEMBRO SINDICATO ASENTAMIENTO, MIEMBRO SINDICATO CAMPESINO, MIEMBRO SINDICATO CAMPESINO COMPLEJO PANGUIPULLI, MIEMBRO SINDICATO COMPLEJO MADERERO, MIEMBRO SINDICATO TAXISTAS CHILLAN, MIEMBRO SUPLENTE COMISION POLITICA MIR, MILITANTE DC, VINCULADA MIR, MILITANTE MAPU, VINCULADO MIR, MILITANTE REGIONAL VALPARAISO MIR, MILITAR EN RETIRO, MINISTRO DE DEFENSA, MOVIMIENTO CRISTIANOS POR EL SOCIALISMO, MURALISTA B.R.P., PASTOR EVANGELICO, PDTE. SINDICATO AGRICOLA "ELMO CATALAN", PDTE.CENTRO ABASTECIMIENTO RURAL (CAR), PDTE.CENTRO ALUMNOS ARQUITECTURA U.VALPARAISO, DIRIGENTE FER, PRESIDENTE ANEF, PRESIDENTE ASENTAMIENTO, PRESIDENTE ASENTAMIENTO "EL ESFUERZO CAMPESINO", PRESIDENTE ASENTAMIENTO "POR LA RAZON O LA FUERZA", PRESIDENTE ASENTAMIENTO "SAN ISIDRO", PRESIDENTE ASENTAMIENTO CAMPESINO, PRESIDENTE ASENTAMIENTO CAMPO LINDO, PRESIDENTE ASENTAMIENTO EL PATAGUAL, PRESIDENTE ASENTAMIENTO SAN PEDRO, PRESIDENTE ASENTAMIENTO VIÑA EL ESCORIAL, PRESIDENTE CAMPAMENTO SANTIAGO PINO, PRESIDENTE CAMPAMENTO SIMON BOLIVAR, PRESIDENTE CENTRO DE ALUMNOS INGENIERIA U.T.E., PRESIDENTE CENTRO DE ALUMNOS LICEO "VALENTIN LETELIER", PRESIDENTE CENTRO DE ALUMNOS LICEO OSORNO, PRESIDENTE CONSEJO METROPOLITANO AGECH, PRESIDENTE JAP, PRESIDENTE JAP CONCHALI, PRESIDENTE JAP LAMPA, PRESIDENTE JAP SAN ROSENDO, DIRIGENTE FEDERACION S.WATTS, PRESIDENTE JAP, DIRIGENTE MAPUCHE, PRESIDENTE JAP, VICEPRESIDENTE ASENTAMIENTO, PRESIDENTE JRR, PRESIDENTE JS PARRAL, AYUDANTE GOBERNADOR, PRESIDENTE JS PITRUFQUEN, PRESIDENTE JUNTA DE VECINOS, PRESIDENTE JUNTA DE VECINOS JOSE MARIA CARO, PRESIDENTE JUNTA DE VECINOS POBLACION SARMIENTO, PRESIDENTE JUNTA DE VECINOS PUDAHUEL, PRESIDENTE JUNTA DE VECINOS, MIEMBRO CENTRO CULTURAL CEDIN, PRESIDENTE PROVINCIAL SINDICATO CONSTRUCCION V REGION, PRESIDENTE SINDICATO, PRESIDENTE SINDICATO "DESPERTAR CAMPESINO", PRESIDENTE SINDICATO ASENTAMIENTO "EL ENCINO", PRESIDENTE SINDICATO CAMPESINO, PRESIDENTE SINDICATO CAMPESINO "CHACON CORONA", PRESIDENTE SINDICATO CELULOSA ARAUCO, PRESIDENTE SINDICATO CORFO ATACAMA, SECRETARIO PC ATACAMA, PRESIDENTE SINDICATO EMPLEADOS CONAF, PRESIDENTE SINDICATO EMPLEADOS ELECMETAL, PRESIDENTE SINDICATO EMPRESA CONSTRUCTORA, PRESIDENTE SINDICATO ESTIBADORES, PRESIDENTE SINDICATO FCA.VIVIENDAS HOGAR DE CRISTO, PRESIDENTE SINDICATO INDUSTRIAL RAYON SAID, PRESIDENTE SINDICATO LONCOLECHE, DIRIGENTE CORDON INDUSTRIAL, PRESIDENTE SINDICATO OBRERO FUNDO RELECO, PRESIDENTE SINDICATO OBREROS DUPONT-ENAEX, PRESIDENTE SINDICATO OBREROS ENAEX, PRESIDENTE SINDICATO OBREROS RAYONHIL, PRESIDENTE SINDICATO RAYON SAID, PRESIDENTE SINDICATO SOC.CONSTRUCT.ESTABLEC.EDUCAC., PRESIDENTE SINDICATO SOQUIMICH, DIRIGENTE JS P.DE VALDIVIA, PRESIDENTE SINDICATO TEXTIL BURGER, REGIDOR CALAMA, EX-DIRIGENTE SINDICAL CHUQUICAMATA, REGIDOR CATEMU, REGIDOR DE LAJA, DIRECTOR ESCUELA CONSOLIDADA DE LAJA, REGIDOR ENTRE LAGOS, REGIDOR LIMACHE, INTERVENTOR CCU, REGIDOR MULCHEN, DIRIGENTE CUT, REGIDOR PC COIHUECO, DIRIGENTE CAMPESINO, REGIDOR PUERTO CISNES, REGIDOR RIO NEGRO, REGIDOR SAN BERNARDO, SECRETARIO SECCIONAL P.S. SAN BERNARDO, REGIDOR SAN FERNANDO, SECRETARIO PROVINCIAL P.C.COLCHAGUA, REGIDOR TOCOPILLA, TESORERO CUT, PDTE. SINDICATO SOQUIMICH, REGIDOR, DIRECTOR LOCAL EDUCACION, SECRETARIO REGIONAL PS, REGIDOR, SECRETARIO REGIONAL CUT, MIEMBRO COMITE CENTRAL PS, REPRESENTANTE EN CHILE PS ECUATORIANO, SECRETARIA COMISION POLITICA MIR, EX-ESTUDIANTE U.DE CHILE, SECRETARIA COMITE LOCAL PC, EX-SECRETARIA MINISTROS U.P., SECRETARIA EMPRESA FARMACEUTICA, SECRETARIA FEDERACION TRABAJADORES AUCAR, SECRETARIO COMACH, DIRIGENTE NACIONAL SINDICATO ESTIBADORES, SECRETARIO COMITE CAMPESINO RANQUIL, SECRETARIO COMITE LOCAL JJCC, SECRETARIO COMITE LOCAL PC, SECRETARIO COMITE PEQUEÑOS AGRICULTORES, SECRETARIO COMITE REGIONAL MIR, DIRIGENTE POBLACIONAL, SECRETARIO COMITE REGIONAL PC, SECRETARIO COMITE UNION CAMPESINA, SECRETARIO COMUNAL PC, SECRETARIO COMUNAL PS, DIRIGENTE VECINAL, SECRETARIO CUT TEMUCO, DIRIGENTE ASENTAMIENTO, SECRETARIO DE ORGANIZACION JS, SECRETARIO FEDERACION SINDICATOS CAMPESINOS, SECRETARIO GENERAL FEUSACH, SECRETARIO FINANZAS CONFECH, SECRETARIO GENERAL MAPU PUNTA ARENAS, SECRETARIO GENERAL MIR, SECRETARIO GOBERNADOR SANTA CRUZ, SECRETARIO GRAL.COMITE DEL CARBON PC; DIRIGENTE MAGISTERIO, SECRETARIO JJCC OSORNO, SECRETARIO JUNTA DE VECINOS VILLA "SALVADOR ALLENDE", SECRETARIO LOCAL PC, SECRETARIO LOCAL PR CHERQUENCO, SECRETARIO LOCAL PS, SECRETARIO ORGANIZACION JS, SECRETARIO ORGANIZACION PC, SECRETARIO ORGANIZACION PS, SECRETARIO POLITICO JJCC, SECRETARIO POLITICO MAPU BUIN, SECRETARIO PROPAGANDA JJCC, JEFE BRP TEMUCO, SECRETARIO PROVINCIAL CUT, DIRIGENTE MAGISTERIO (SUTE), SECRETARIO REGIDOR, PRESIDENTE COMITE POBLADORES SIN CASA, SECRETARIO REGIONAL CUT, SECRETARIO REGIONAL JJCC, SECRETARIO REGIONAL JJCC, EX-MIEMBRO COMITE CENTRAL PC, SECRETARIO REGIONAL JS VALDIVIA, SECRETARIO REGIONAL MIR, SECRETARIO REGIONAL ORGANIZACION PS, SECRETARIO REGIONAL PC, SECRETARIO REGIONAL PC, EX-REGIDOR, DIRIGENTE SINDICAL, SECRETARIO REGIONAL PS, SECRETARIO REGIONAL PS, DIRIGENTE SNS, SECRETARIO REGIONAL PS, EX-PRESIDENTE SINDICATO CAVANCHA, SECRETARIO REGIONAL PS, PRESIDENTE SINDICATO EL ABANICO, SECRETARIO REGIONAL PS, PRESIDENTE UP ANTOFAGASTA, SECRETARIO REGIONAL Y MIEMBRO COMITE CENTRAL PS, SECRETARIO SECCIONAL PS, SECRETARIO SINDICATO AGRICOLA Y PESQUERO DE PTO.DOMINGUEZ, SECRETARIO SINDICATO ASENTAMIENTO "LA ESTRELLA", SECRETARIO SINDICATO C.T.C., SECRETARIO SINDICATO CAMPESINO, SECRETARIO SINDICATO CAMPESINO "EL LIBERTADOR", SECRETARIO SINDICATO CAMPESINO DE PUERTO OCTAY, SECRETARIO SINDICATO CMPC, MIEMBRO CUT PROVINCIAL, SECRETARIO SINDICATO CONSTRUCCION, SECRETARIO SINDICATO DE EMPLEADOS PERLAK, SECRETARIO SINDICATO ELECMETAL, SECRETARIO SINDICATO INDUSTRIAL CCU, SECRETARIO SINDICATO MOTE CON HUESILLO, SECRETARIO SINDICATO OBREROS CENTRAL "EL TORO", SECRETARIO SINDICATO PIRQUINEROS, SECRETARIO SINDICATO SOCOAGRO, SECRETARIO SINDICATO TRABAJADORES AGRICOLAS, SECRETARIO UNION CAMPESINA DE MAILE, SIN  INFORMACION, SOCIO DIARIO "EL GUERRILLERO"; LOCUTOR RADIO M.RODRIGUE, SUBDELEGADO COMUNA NINHUE, SUBDELEGADO DE CUNCO, SUBDELEGADO DE GOBIERNO NEGRETE, VICE-PDTE. MAPU, SUBGERENTE FINANZAS CHUQUICAMATA, SUBSECRETARIO GENERAL JJCC, SUFJEFA ESTRUCTURA MILICIANA MIR, SUPERVISOR COBRECHUQUI, TESORERO SINDICATO CAMPESINO, TESORERO SINDICATO CONSTRUCCION, EX-CONSEJERO NACIONAL CUT, TESORERO SINDICATO CONSTRUCTORA INGAS, TESORERO SINDICATO FCA.VIVIENDAS HOGAR DE CRISTO, TESORERO SINDICATO METALURGICO, TESORERO SINDICATO SUPLEMENTEROS, UNIDAD ANTIEXPLOSIVOS CNI, VICEPRESIDENTE ASENTAMIENTO "24 DE ABRIL", VICEPRESIDENTE ASENTAMIENTO EL PATAGUAL, VICEPRESIDENTE CAMPAMENTO SANTIAGO PINO, VICEPRESIDENTE CONFEDERACION CAMPESINA RANQUIL, VICEPRESIDENTE FEDERACION CAMPESINA, DIRIGENTE ASENTAMIENTO, VICEPRESIDENTE JAP, VICEPRESIDENTE JUNTA VECINAL SAN MIGUEL, EX-DIRIGENTE JAP, VICEPRESIDENTE UNION OBREROS FERROVIARIOS</t>
+    <t xml:space="preserve">Cargo político de la víctima</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tipo_caso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Descripción académica de los tipos de víctima</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Desaparecido/A, Desaparecido/A Con Información De Muerte, Muerto</t>
   </si>
   <si>
     <t xml:space="preserve">fecha_desaparicion_muerte</t>
   </si>
   <si>
-    <t xml:space="preserve">Fecha de desaparición o muerte</t>
+    <t xml:space="preserve">Fecha de desaparición o muerte de la víctima</t>
   </si>
   <si>
     <t xml:space="preserve">region</t>
@@ -146,19 +170,13 @@
     <t xml:space="preserve">ciudad</t>
   </si>
   <si>
-    <t xml:space="preserve">Ciudad donde ocurrió el secuestro o asesinato</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-, ACHAO, ANDACOLLO, ANGOL, ANTOFAGASTA, ANTUCO, ARAUCO, ARGENTINA, ARICA, AYSEN, Buenos Aires, BUENOS AIRES, BULGARIA, CABILDO, CACHAPOAL, CALAMA, CARAHUE, CARTAGENA, CASTRO, CAUQUENES, CHACABUCO, CHANCO, CHAÑARAL, CHILLAN, CHILLÁN, CHILOE, COBQUECURA, COELEMU, COIHUECO, COMBARBALA, COMODORO RIVADAVIA, CONCEPCION, CONCEPCIÓN, CONSTITUCION, CONTULMO, COPIAPO, COQUIMBO, CORONEL, COYA, COYHAIQUE, CUNCO, CURACAUTIN, CURACAVI, CURANILAHUE, CURARREHUE, CURICO, EL LOA, ENTRE LAGOS, ESTADOS UNIDOS, FREIRE, GALVARINO, GORBEA, HUASCO, HUEPIL, ILLAPEL, IQUIQUE, ISLA DE MAIPO, LA CALERA, LA LIGUA, La Paz, Bolivia, LA PLATA, LA SERENA, LA UNION, LAJA, LAUTARO, LEQUENA, LINARES, LIQUIÑE, LLANQUIHUE, LLAY LLAY, LONQUIMAY, LOS ANDES, LOS ANGELES, LOS VILOS, LOTA, MAGALLANES, MAIPO, MALLECO, MARCHIGÜE, MAULLIN, MELIPEUCO, MELIPILLA, MENDOZA, MEXICO, MOLINA, MULCHEN, NACIMIENTO, NELTUME, NEUQUEN, NINHUE, ÑUBLE, OSORNO, OVALLE, PAINE, PALENA, PANGUIPULLI, PARAGUAY, PARRAL, PENCAHUE, PEÑAFLOR, PERQUENCO, PICHIDEGUA, PISAGUA, PITRUFQUEN, POLCURA, PORVENIR, PUCÓN, PUERTO AYSEN, PUERTO MONTT, PUERTO NATALES, PUERTO OCTAY, PUERTO SAAVEDRA, PUNTA ARENAS, PUTRE, QUEBEC, QUELLON, QUENAC, QUILACO, QUILLECO, QUILLOTA, QUILPUE, QUINTERO, QUITRATUE, RANCAGUA, RENGO, RIO BUENO, RIO NEGRO, SAGRADA FAMILIA, SAN ANTONIO, SAN BERNARDO, SAN CARLOS, SAN FCO. DE MOSTAZAL, SAN FELIPE, SAN FERNANDO, SAN JAVIER, SAN NICOLAS, SAN PABLO, SAN PEDRO DE LA PAZ, SAN SEBASTIAN, SANTA BARBARA, SANTA BÁRBARA, SANTA CRUZ, Santiago, SANTIAGO, TALAGANTE, TALCA, TALCAHUANO, TEMUCO, TIERRA DEL FUEGO, TOCOPILLA, TOME, TRASLADADO A TEMUCO, TRASLADADO COYHAIQUE, TRASLADADO SANTIAGO, TRASLADO SAN ANTONIO, VALDIVIA, VALLENAR, VALPARAISO, VICTORIA, VICUÑA, VILLA ALEGRE, VILLARRICA, VIÑA DEL MAR, WASHINGTON, YUMBEL</t>
+    <t xml:space="preserve">Ciudad de desaparición o muerte</t>
   </si>
   <si>
     <t xml:space="preserve">comuna</t>
   </si>
   <si>
-    <t xml:space="preserve">Comuna donde ocurrió el secuestro o asesinato</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-, ANDACOLLO, ANGOL, ANTOFAGASTA, ANTUCO, ARAUCO, ARICA, BUIN, BULNES, CABILDO, CALAMA, CARAHUE, CARTAGENA, CASTRO, CAUQUENES, CAUTIN, CERRILLOS, CERRO NAVIA, CHANCO, CHIGUAYANTE, CHILLAN, CISNES, COBQUECURA, COELEMU, COIHUECO, COLINA, COMBARBALA, CONCEPCION, CONCEPCIÓN, CONCHALI, CONSTITUCION, CONTULMO, COPIAPO, COQUIMBO, CORONEL, CORRAL, COYHAIQUE, CUNCO, CURACAUTIN, CURACAVI, CURANILAHUE, CURARREHUE, CURICO, DIEGO DE ALMAGRO, EL BOSQUE, EL MONTE, ENTRE LAGOS, ESTACION CENTRAL, ESTACIÓN CENTRAL, FREIRE, FUTALEUFU, FUTRONO, GALVARINO, GORBEA, HUARA, ILLAPEL, INDEPENDENCIA, IQUIQUE, ISLA DE MAIPO, LA CALERA, LA CISTERNA, LA FLORIDA, LA GRANJA, LA LIGUA, LA PINTANA, LA REINA, LA SERENA, LA UNION, LAGO RANCO, LAJA, LAMPA, LANCO, LAS CONDES, LAUTARO, LIMACHE, LINARES, LLAY LLAY, LO ESPEJO, LO PRADO, LONQUIMAY, LOS ANDES, LOS ANGELES, LOS VILOS, LOTA, MACUL, MAIPU, MARCHIGÜE, MARIA ELENA, MAULLIN, MELIPEUCO, MELIPILLA, MOLINA, MULCHEN, NACIMIENTO, NINHUE, NUEVA IMPERIAL, ÑUÑOA, OLLAGšE, OSORNO, OVALLE, PADRE HURTADO, PAINE, PALENA, PANGUIPULLI, PARRAL, PELARCO, PEMUCO, PENCO, PEÑAFLOR, PEÑALOLEN, PERQUENCO, PICHIDEGUA, PINTO, PIRQUE, PISAGUA, PITRUFQUEN, POLCURA, PORVENIR, PROVIDENCIA, PUCHUNCAVI, PUCÓN, PUDAHUEL, PUDAHUEL (BARRANCAS), PUENTE ALTO, PUERTO AYSEN, PUERTO MONTT, PUERTO NATALES, PUERTO OCTAY, PUERTO SAAVEDRA, PUNTA ARENAS, PUTAENDO, PUTRE, PUYEHUE, QUELLON, QUILACO, QUILICURA, QUILLECO, QUILLOTA, QUILPUE, QUINCHAO, QUINTA NORMAL, QUINTERO, QUIRIHUE, RAHUE, RANCAGUA, RECOLETA, RENAICO, RENCA, RENGO, RETIRO, RIO BUENO, RIO NEGRO, ROMERAL, S.J.DE LA MARIQUINA, SAGRADA FAMILIA, SAN ANTONIO, SAN BERNARDO, SAN CARLOS, SAN CLEMENTE, SAN FCO. DE MOSTAZAL, SAN FELIPE, SAN FERNANDO, SAN JAVIER, SAN JOAQUIN, SAN JOAQUÍN, SAN JOSE DE MAIPO, SAN JUAN DE LA COSTA, SAN MIGUEL, SAN NICOLAS, SAN PABLO, SAN PEDRO DE LA PAZ, SAN RAMON, SAN ROSENDO, SAN VICENTE T.T., SANTA BARBARA, SANTA BÁRBARA, SANTA CRUZ, SANTAGO, SANTIAGO, SANTO DOMINGO, TALAGANTE, TALCA, TALCAHUANO, TEMUCO, TIERRA AMARILLA, TOCOPILLA, TOLTEN, TOME, VALAPARAISO, VALDIVIA, VALLENAR, VALPARAISO, VICTORIA, VICUÑA, VILLA ALEGRE, VILLARRICA, VIÑA DEL MAR, VITACURA, YUMBEL, ZONA FRONTERIZA DE PAIMUN</t>
+    <t xml:space="preserve">Comuna de desaparición o muerte</t>
   </si>
   <si>
     <t xml:space="preserve">comision</t>
@@ -170,7 +188,7 @@
     <t xml:space="preserve">CVR, CNRR, CPACDDEPVPPT</t>
   </si>
   <si>
-    <t xml:space="preserve">calificacion</t>
+    <t xml:space="preserve">calificacion_comision</t>
   </si>
   <si>
     <t xml:space="preserve">Calificación</t>
@@ -179,34 +197,67 @@
     <t xml:space="preserve">Violación de DDHH, Violencia política</t>
   </si>
   <si>
-    <t xml:space="preserve">tipo_caso</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tipo de caso</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DESAPARECIDO/A, ASESINADO/A SIN ENTREGA DE CUERPO, ASESINADO/A</t>
+    <t xml:space="preserve">relato_comision</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Relato del caso producido por la comisisión de la verdad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rol_causa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rol de la causa judicial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fecha_actualizacion_causa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fecha de actualización de la información judicial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dttm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">estado_causa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estado de la causa judicial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">estado_causa_rec</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tipo de estado de la causa judicial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acumulado, Apelación, Archivado, Casación, Declaración incompetencia, Plenario, Rechazo amparo, Reemplaza estado procesal, Sentencia Corte Marcial, Sentencia Ejecutoriada, Sentencia Primera Instancia, Sentencia Segunda Instancia, Sin información, Sobreseimiento, Sumario</t>
+  </si>
+  <si>
+    <t xml:space="preserve">agentes_condena</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agentes condenados</t>
+  </si>
+  <si>
+    <t xml:space="preserve">instituciones_agentes_condena</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rama de las FFAA a las que pertenecen los agentes condenados</t>
   </si>
   <si>
     <t xml:space="preserve">identificacion</t>
   </si>
   <si>
-    <t xml:space="preserve">¿Víctima identificada?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IDENTIFICADO/A, NO IDENTIFICADO/A</t>
+    <t xml:space="preserve">¿La víctima fue hallada e identificada?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identificado/a, No identificado/a</t>
   </si>
   <si>
     <t xml:space="preserve">identificacion_det</t>
   </si>
   <si>
     <t xml:space="preserve">Detalle de la identificación</t>
-  </si>
-  <si>
-    <t xml:space="preserve">relato</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Relato del caso</t>
   </si>
 </sst>
 </file>
@@ -557,25 +608,31 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -583,19 +640,22 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -603,19 +663,22 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s">
         <v>13</v>
       </c>
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" t="s">
-        <v>12</v>
-      </c>
       <c r="E4" t="n">
-        <v>112</v>
+        <v>228</v>
       </c>
       <c r="F4" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G4" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -623,19 +686,22 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E5" t="n">
-        <v>76</v>
+        <v>0</v>
       </c>
       <c r="F5" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G5" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -643,19 +709,22 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D6" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>9</v>
+        <v>22</v>
+      </c>
+      <c r="G6" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -663,19 +732,22 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
         <v>21</v>
       </c>
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>23</v>
+        <v>25</v>
+      </c>
+      <c r="G7" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -683,19 +755,22 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>112</v>
       </c>
       <c r="F8" t="s">
-        <v>26</v>
+        <v>10</v>
+      </c>
+      <c r="G8" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="9">
@@ -703,19 +778,22 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D9" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="E9" t="n">
-        <v>18</v>
+        <v>76</v>
       </c>
       <c r="F9" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G9" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="10">
@@ -723,19 +801,22 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C10" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10" t="s">
-        <v>31</v>
+        <v>10</v>
+      </c>
+      <c r="G10" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="11">
@@ -743,19 +824,22 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E11" t="n">
-        <v>1739</v>
+        <v>18</v>
       </c>
       <c r="F11" t="s">
-        <v>34</v>
+        <v>10</v>
+      </c>
+      <c r="G11" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="12">
@@ -769,13 +853,16 @@
         <v>36</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E12" t="n">
-        <v>2388</v>
+        <v>0</v>
       </c>
       <c r="F12" t="s">
         <v>37</v>
+      </c>
+      <c r="G12" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="13">
@@ -789,13 +876,16 @@
         <v>39</v>
       </c>
       <c r="D13" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>1739</v>
       </c>
       <c r="F13" t="s">
-        <v>9</v>
+        <v>40</v>
+      </c>
+      <c r="G13" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="14">
@@ -803,19 +893,22 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C14" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>2388</v>
       </c>
       <c r="F14" t="s">
-        <v>42</v>
+        <v>10</v>
+      </c>
+      <c r="G14" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="15">
@@ -829,13 +922,16 @@
         <v>44</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="s">
         <v>45</v>
+      </c>
+      <c r="G15" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="16">
@@ -849,13 +945,16 @@
         <v>47</v>
       </c>
       <c r="D16" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="E16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16" t="s">
-        <v>48</v>
+        <v>10</v>
+      </c>
+      <c r="G16" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="17">
@@ -863,19 +962,22 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" t="s">
         <v>49</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="s">
         <v>50</v>
       </c>
-      <c r="D17" t="s">
-        <v>22</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" t="s">
-        <v>51</v>
+      <c r="G17" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="18">
@@ -883,19 +985,22 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
+        <v>51</v>
+      </c>
+      <c r="C18" t="s">
         <v>52</v>
       </c>
-      <c r="C18" t="s">
-        <v>53</v>
-      </c>
       <c r="D18" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
       </c>
       <c r="F18" t="s">
-        <v>54</v>
+        <v>10</v>
+      </c>
+      <c r="G18" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="19">
@@ -903,19 +1008,22 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C19" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D19" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19" t="s">
-        <v>57</v>
+        <v>10</v>
+      </c>
+      <c r="G19" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="20">
@@ -923,19 +1031,22 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C20" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E20" t="n">
-        <v>1747</v>
+        <v>0</v>
       </c>
       <c r="F20" t="s">
-        <v>60</v>
+        <v>57</v>
+      </c>
+      <c r="G20" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="21">
@@ -943,19 +1054,22 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C21" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D21" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="E21" t="n">
-        <v>2909</v>
+        <v>0</v>
       </c>
       <c r="F21" t="s">
-        <v>9</v>
+        <v>60</v>
+      </c>
+      <c r="G21" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="22">
@@ -963,19 +1077,206 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
+        <v>61</v>
+      </c>
+      <c r="C22" t="s">
+        <v>62</v>
+      </c>
+      <c r="D22" t="s">
+        <v>18</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="s">
+        <v>10</v>
+      </c>
+      <c r="G22" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
         <v>63</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C23" t="s">
         <v>64</v>
       </c>
-      <c r="D22" t="s">
-        <v>12</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" t="s">
-        <v>9</v>
+      <c r="D23" t="s">
+        <v>18</v>
+      </c>
+      <c r="E23" t="n">
+        <v>228</v>
+      </c>
+      <c r="F23" t="s">
+        <v>10</v>
+      </c>
+      <c r="G23" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>65</v>
+      </c>
+      <c r="C24" t="s">
+        <v>66</v>
+      </c>
+      <c r="D24" t="s">
+        <v>67</v>
+      </c>
+      <c r="E24" t="n">
+        <v>228</v>
+      </c>
+      <c r="F24" t="s">
+        <v>10</v>
+      </c>
+      <c r="G24" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>68</v>
+      </c>
+      <c r="C25" t="s">
+        <v>69</v>
+      </c>
+      <c r="D25" t="s">
+        <v>18</v>
+      </c>
+      <c r="E25" t="n">
+        <v>228</v>
+      </c>
+      <c r="F25" t="s">
+        <v>10</v>
+      </c>
+      <c r="G25" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>70</v>
+      </c>
+      <c r="C26" t="s">
+        <v>71</v>
+      </c>
+      <c r="D26" t="s">
+        <v>21</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="s">
+        <v>72</v>
+      </c>
+      <c r="G26" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>73</v>
+      </c>
+      <c r="C27" t="s">
+        <v>74</v>
+      </c>
+      <c r="D27" t="s">
+        <v>18</v>
+      </c>
+      <c r="E27" t="n">
+        <v>2076</v>
+      </c>
+      <c r="F27" t="s">
+        <v>10</v>
+      </c>
+      <c r="G27" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>75</v>
+      </c>
+      <c r="C28" t="s">
+        <v>76</v>
+      </c>
+      <c r="D28" t="s">
+        <v>18</v>
+      </c>
+      <c r="E28" t="n">
+        <v>2076</v>
+      </c>
+      <c r="F28" t="s">
+        <v>10</v>
+      </c>
+      <c r="G28" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>77</v>
+      </c>
+      <c r="C29" t="s">
+        <v>78</v>
+      </c>
+      <c r="D29" t="s">
+        <v>21</v>
+      </c>
+      <c r="E29" t="n">
+        <v>1747</v>
+      </c>
+      <c r="F29" t="s">
+        <v>79</v>
+      </c>
+      <c r="G29" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>80</v>
+      </c>
+      <c r="C30" t="s">
+        <v>81</v>
+      </c>
+      <c r="D30" t="s">
+        <v>18</v>
+      </c>
+      <c r="E30" t="n">
+        <v>2909</v>
+      </c>
+      <c r="F30" t="s">
+        <v>10</v>
+      </c>
+      <c r="G30" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
